--- a/biology/Zoologie/William_Conway_(zoologiste)/William_Conway_(zoologiste).xlsx
+++ b/biology/Zoologie/William_Conway_(zoologiste)/William_Conway_(zoologiste).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">William Gaylord Conway, né le 20 novembre 1929 à Saint-Louis et mort le 21 octobre 2021 à New Rochelle[1], est un zoologiste de nationalité américaine. Il fut le directeur du zoo du Bronx (1962-1999) et le président de la Wildlife Conservation Society (1992-1999).
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">William Gaylord Conway, né le 20 novembre 1929 à Saint-Louis et mort le 21 octobre 2021 à New Rochelle, est un zoologiste de nationalité américaine. Il fut le directeur du zoo du Bronx (1962-1999) et le président de la Wildlife Conservation Society (1992-1999).
 </t>
         </is>
       </c>
@@ -511,13 +523,15 @@
           <t>Activités</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Durant son mandat, William Conway était chargé de la modernisation des installations des animaux présentés au zoo du Bronx et de l'introduction de nouvelles attractions, dont le World of Darkness (Monde des Ténèbres) en 1969 et le World of Birds (Monde des Oiseaux) en 1974[2].
-Conway fut un promoteur de l'exposition zoologique des animaux d'une manière qui recrée l'environnement d'où les espèces sont originaires[3].
-Conway a négocié avec succès l'acquisition par la Société zoologique de New York de trois parcs zoologiques (zoo de Central Park, zoo de Prospect Park, zoo du Queens) auprès du gouvernement municipal de New York en 1981, qui a abouti à un programme de rénovation des attractions pour qu'elles puissent répondre aux exigences modernes en matière de présentation zoologique[4].
-Conway a aussi été à l'avant-garde de la promotion de programmes d'élevage en captivité des espèces menacées. Il était responsable de la création du Wildlife Propagation Trust en 1964, dans lequel un réseau de parcs zoologiques ont collaboré avec le double objectif de préserver des espèces en péril et éventuellement de réintroduire les animaux pour un retour à l'état sauvage[5].
-Conway a également été chargé de diriger le développement du  programme d'accréditation de l'American Zoo and Aquarium Association. Il a rédigé plus de 200 articles et rapports relatifs à la conservation de la faune, l'ornithologie, la propagation des soins aux animaux sauvages et la préservation écologique[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Durant son mandat, William Conway était chargé de la modernisation des installations des animaux présentés au zoo du Bronx et de l'introduction de nouvelles attractions, dont le World of Darkness (Monde des Ténèbres) en 1969 et le World of Birds (Monde des Oiseaux) en 1974.
+Conway fut un promoteur de l'exposition zoologique des animaux d'une manière qui recrée l'environnement d'où les espèces sont originaires.
+Conway a négocié avec succès l'acquisition par la Société zoologique de New York de trois parcs zoologiques (zoo de Central Park, zoo de Prospect Park, zoo du Queens) auprès du gouvernement municipal de New York en 1981, qui a abouti à un programme de rénovation des attractions pour qu'elles puissent répondre aux exigences modernes en matière de présentation zoologique.
+Conway a aussi été à l'avant-garde de la promotion de programmes d'élevage en captivité des espèces menacées. Il était responsable de la création du Wildlife Propagation Trust en 1964, dans lequel un réseau de parcs zoologiques ont collaboré avec le double objectif de préserver des espèces en péril et éventuellement de réintroduire les animaux pour un retour à l'état sauvage.
+Conway a également été chargé de diriger le développement du  programme d'accréditation de l'American Zoo and Aquarium Association. Il a rédigé plus de 200 articles et rapports relatifs à la conservation de la faune, l'ornithologie, la propagation des soins aux animaux sauvages et la préservation écologique.
 </t>
         </is>
       </c>
@@ -546,7 +560,9 @@
           <t>Chronologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1956-1958 : adjoint au curateur des oiseaux au zoo du Bronx
 1958-1966 : curateur des oiseaux au zoo du Bronx
@@ -554,7 +570,7 @@
 1962-1999 : directeur du zoo du Bronx (devenu en 1993, l'International Wildlife Conservation Park)
 1966-1999 : directeur général de la Société zoologique de New York
 1992-1999 : président de la Société zoologique de New York (devenue en 1993, la Wildlife Conservation Society)
-1999 : départ en retraite[7]</t>
+1999 : départ en retraite</t>
         </is>
       </c>
     </row>
@@ -582,7 +598,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>« The Opportunity for Zoos to Save Vanishing Species », dans Oryx, vol. 9, n° 2, septembre 1967, pp. 154-160. DOI 10.1017/S0030605300006189
 « How to Exhibit a Bull Frog : A Bed-time Story for Zoo Men », dans Curator, vol. 11, n° 4, 1968, pp. 310-318.
